--- a/test-data.xlsx
+++ b/test-data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -408,6 +408,7 @@
     <col min="4" max="4" width="10.83203125" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" customWidth="1"/>
     <col min="6" max="6" width="8.83203125" customWidth="1"/>
+    <col min="7" max="7" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -429,6 +430,9 @@
       <c r="F1" t="str">
         <v>床位号</v>
       </c>
+      <c r="G1" t="str">
+        <v>图片URL</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -449,6 +453,9 @@
       <c r="F2" t="str">
         <v>1</v>
       </c>
+      <c r="G2" t="str">
+        <v>https://picsum.photos/100/100?random=1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -469,6 +476,9 @@
       <c r="F3" t="str">
         <v>2</v>
       </c>
+      <c r="G3" t="str">
+        <v>https://picsum.photos/100/100?random=2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -489,6 +499,9 @@
       <c r="F4" t="str">
         <v>1</v>
       </c>
+      <c r="G4" t="str">
+        <v>https://picsum.photos/100/100?random=3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -509,6 +522,9 @@
       <c r="F5" t="str">
         <v>1</v>
       </c>
+      <c r="G5" t="str">
+        <v>https://picsum.photos/100/100?random=4</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -529,10 +545,13 @@
       <c r="F6" t="str">
         <v>2</v>
       </c>
+      <c r="G6" t="str">
+        <v>https://picsum.photos/100/100?random=5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G6"/>
   </ignoredErrors>
 </worksheet>
 </file>